--- a/DMSNewVSale_2025-10-12_14-18.xlsx
+++ b/DMSNewVSale_2025-10-12_14-18.xlsx
@@ -209,6 +209,18 @@
     <t>450.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -254,10 +263,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1446,11 +1452,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>15</v>
@@ -1462,14 +1468,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1479,11 +1485,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1512,14 +1518,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1528,28 +1534,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1561,14 +1567,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1585,7 +1591,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1594,7 +1600,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1627,7 +1633,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1644,14 +1650,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1660,14 +1666,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1677,51 +1683,84 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>92</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>18</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="30" ht="25.5" customHeight="1">
-      <c r="N30" s="13">
-        <v>1452.165</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>93</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+    <row r="31" ht="26.25" customHeight="1">
+      <c r="N31" s="13">
+        <v>1467.0350000000001</v>
+      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1845,10 +1884,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
